--- a/hadzanie.xlsx
+++ b/hadzanie.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="17235" windowHeight="9015"/>
@@ -11,12 +11,12 @@
     <sheet name="Hárok2" sheetId="2" r:id="rId2"/>
     <sheet name="Hárok3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>nazov</t>
   </si>
@@ -157,16 +157,13 @@
   </si>
   <si>
     <t>predok</t>
-  </si>
-  <si>
-    <t>vnutro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,9 +499,9 @@
   <cellStyles count="6">
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 2 2" xfId="4"/>
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
     <cellStyle name="Normálna 2" xfId="1"/>
     <cellStyle name="Normálna 5" xfId="5"/>
+    <cellStyle name="normálne" xfId="0" builtinId="0"/>
     <cellStyle name="Zlá 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -592,7 +589,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -627,7 +623,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -803,16 +798,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,11 +820,9 @@
       <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -846,7 +839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -863,7 +856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -880,7 +873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -897,7 +890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -914,15 +907,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
         <v>6</v>
@@ -931,15 +924,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" s="9">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D8" s="9">
         <v>6</v>
@@ -948,7 +941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -956,7 +949,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="9">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D9" s="9">
         <v>4</v>
@@ -965,15 +958,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9">
         <v>4</v>
@@ -982,7 +975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -990,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D11" s="9">
         <v>4</v>
@@ -999,15 +992,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D12" s="9">
         <v>20</v>
@@ -1016,15 +1009,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C13" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D13" s="9">
         <v>3</v>
@@ -1033,15 +1026,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C14" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D14" s="9">
         <v>10</v>
@@ -1050,7 +1043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
@@ -1067,7 +1060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1084,7 +1077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -1101,15 +1094,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -1118,7 +1111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1129,38 +1122,38 @@
         <v>6</v>
       </c>
       <c r="D19" s="9">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="E19" s="10">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C20" s="9">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D20" s="9">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="E20" s="10">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" s="9">
         <v>2</v>
@@ -1169,24 +1162,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C22" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D22" s="9">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="E22" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
@@ -1197,13 +1190,13 @@
         <v>6</v>
       </c>
       <c r="D23" s="9">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="E23" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
@@ -1211,41 +1204,41 @@
         <v>2</v>
       </c>
       <c r="C24" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24" s="9">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E24" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C25" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D25" s="9">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E25" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C26" s="9">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D26" s="9">
         <v>14</v>
@@ -1254,7 +1247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
@@ -1265,13 +1258,13 @@
         <v>12</v>
       </c>
       <c r="D27" s="9">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E27" s="10">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
@@ -1282,13 +1275,13 @@
         <v>6</v>
       </c>
       <c r="D28" s="9">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="E28" s="10">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
@@ -1305,7 +1298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
@@ -1319,10 +1312,10 @@
         <v>6</v>
       </c>
       <c r="E30" s="10">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="8" t="s">
         <v>30</v>
       </c>
@@ -1336,10 +1329,10 @@
         <v>6</v>
       </c>
       <c r="E31" s="10">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
@@ -1356,7 +1349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
@@ -1373,7 +1366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -1390,7 +1383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
@@ -1407,7 +1400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
@@ -1424,7 +1417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
@@ -1441,7 +1434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
         <v>37</v>
       </c>
@@ -1458,7 +1451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
         <v>38</v>
       </c>
@@ -1475,7 +1468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
         <v>39</v>
       </c>
@@ -1492,7 +1485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
@@ -1509,7 +1502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -1526,7 +1519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
@@ -1543,7 +1536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15.75" thickBot="1">
       <c r="A44" s="11" t="s">
         <v>43</v>
       </c>
@@ -1560,203 +1553,203 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="14"/>
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
       <c r="D45" s="31"/>
       <c r="E45" s="34"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="15"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="33"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="15"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="33"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="15"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="33"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="15"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="33"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="15"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="33"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="15"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="33"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="16"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="33"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="15"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="33"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="15"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="33"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="15"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="33"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="33"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="15"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
       <c r="E57" s="33"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="15"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
       <c r="E58" s="33"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="15"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
       <c r="E59" s="33"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="15"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
       <c r="E60" s="33"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="15"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
       <c r="E61" s="33"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="15"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
       <c r="E62" s="33"/>
     </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="15.75" thickBot="1">
       <c r="A63" s="17"/>
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
       <c r="E63" s="35"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="18"/>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
       <c r="E64" s="24"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="15"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
       <c r="E65" s="26"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="15"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
       <c r="E66" s="28"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="19"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="E67" s="28"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="15"/>
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
       <c r="E68" s="28"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="15"/>
       <c r="B69" s="27"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="E69" s="28"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="19"/>
       <c r="B70" s="27"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="28"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="15"/>
       <c r="B71" s="27"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
       <c r="E71" s="28"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="15"/>
       <c r="B72" s="27"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
       <c r="E72" s="28"/>
     </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="15.75" thickBot="1">
       <c r="A73" s="20"/>
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
@@ -1769,24 +1762,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
